--- a/xlsx/country_comparison/split_few_positive.xlsx
+++ b/xlsx/country_comparison/split_few_positive.xlsx
@@ -432,34 +432,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.97807177418777</v>
+        <v>0.95822767599798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.955573283615399</v>
+        <v>0.972415009417179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.956644781011224</v>
+        <v>0.969544885106915</v>
       </c>
       <c r="E2" t="n">
-        <v>0.920388349514563</v>
+        <v>0.94393954252824</v>
       </c>
       <c r="F2" t="n">
-        <v>0.973461862037032</v>
+        <v>0.971311395922343</v>
       </c>
       <c r="G2" t="n">
-        <v>0.978847589475462</v>
+        <v>0.977318990998079</v>
       </c>
       <c r="H2" t="n">
-        <v>0.987798042281172</v>
+        <v>0.977831668641775</v>
       </c>
       <c r="I2" t="n">
-        <v>0.954040293116848</v>
+        <v>0.91864598874616</v>
       </c>
       <c r="J2" t="n">
-        <v>0.932493718441374</v>
+        <v>0.9793168770663</v>
       </c>
       <c r="K2" t="n">
-        <v>0.862743321508386</v>
+        <v>0.882031100903789</v>
       </c>
     </row>
     <row r="3">
@@ -467,34 +467,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.878051256914455</v>
+        <v>0.873591632412966</v>
       </c>
       <c r="C3" t="n">
-        <v>0.805528694942963</v>
+        <v>0.86082362507101</v>
       </c>
       <c r="D3" t="n">
-        <v>0.897095456786069</v>
+        <v>0.908587107772289</v>
       </c>
       <c r="E3" t="n">
-        <v>0.914563106796117</v>
+        <v>0.900590885152211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.989584676132742</v>
+        <v>0.934755181227834</v>
       </c>
       <c r="G3" t="n">
-        <v>0.966803464481018</v>
+        <v>0.966872405856326</v>
       </c>
       <c r="H3" t="n">
-        <v>0.854642218851978</v>
+        <v>0.918055120335386</v>
       </c>
       <c r="I3" t="n">
-        <v>0.935962763136375</v>
+        <v>0.866322916691615</v>
       </c>
       <c r="J3" t="n">
-        <v>0.938320135986242</v>
+        <v>0.944118141911995</v>
       </c>
       <c r="K3" t="n">
-        <v>0.85898341955243</v>
+        <v>0.851464112457821</v>
       </c>
     </row>
     <row r="4">
@@ -502,34 +502,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.831041039201859</v>
+        <v>0.797410917528468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.838627946917928</v>
+        <v>0.847089225289236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.956098219591382</v>
+        <v>0.936149139167187</v>
       </c>
       <c r="E4" t="n">
-        <v>0.860194174757281</v>
+        <v>0.89840054271122</v>
       </c>
       <c r="F4" t="n">
-        <v>0.989584676132742</v>
+        <v>0.940971237618567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.955483749579742</v>
+        <v>0.955791830964021</v>
       </c>
       <c r="H4" t="n">
-        <v>0.923085571393482</v>
+        <v>0.868561855463216</v>
       </c>
       <c r="I4" t="n">
-        <v>0.931806303256037</v>
+        <v>0.901139968499578</v>
       </c>
       <c r="J4" t="n">
-        <v>0.800336359768862</v>
+        <v>0.841124457480678</v>
       </c>
       <c r="K4" t="n">
-        <v>0.879629516792356</v>
+        <v>0.866160229337452</v>
       </c>
     </row>
     <row r="5">
@@ -537,34 +537,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.942298438690477</v>
+        <v>0.913369846217904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.889539815343245</v>
+        <v>0.880464532117965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.900939518601021</v>
+        <v>0.929528695413859</v>
       </c>
       <c r="E5" t="n">
-        <v>0.792233009708738</v>
+        <v>0.825270067654784</v>
       </c>
       <c r="F5" t="n">
-        <v>0.931523108232738</v>
+        <v>0.908030266549875</v>
       </c>
       <c r="G5" t="n">
-        <v>0.961562693121051</v>
+        <v>0.956161519965351</v>
       </c>
       <c r="H5" t="n">
-        <v>0.936199253347452</v>
+        <v>0.88593160302545</v>
       </c>
       <c r="I5" t="n">
-        <v>0.898747247546683</v>
+        <v>0.882281313486622</v>
       </c>
       <c r="J5" t="n">
-        <v>0.957908868744195</v>
+        <v>0.894116823440551</v>
       </c>
       <c r="K5" t="n">
-        <v>0.752539909114317</v>
+        <v>0.849158806425503</v>
       </c>
     </row>
     <row r="6">
@@ -572,34 +572,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.857647985572906</v>
+        <v>0.862426825539725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.883355909341761</v>
+        <v>0.890335029376851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.873465858580176</v>
+        <v>0.895155515239418</v>
       </c>
       <c r="E6" t="n">
-        <v>0.825242718446602</v>
+        <v>0.829083102528869</v>
       </c>
       <c r="F6" t="n">
-        <v>0.918721882623101</v>
+        <v>0.939432814960256</v>
       </c>
       <c r="G6" t="n">
-        <v>0.97940935806253</v>
+        <v>0.97518620445616</v>
       </c>
       <c r="H6" t="n">
-        <v>0.860628224826303</v>
+        <v>0.89660725746953</v>
       </c>
       <c r="I6" t="n">
-        <v>0.866302453950557</v>
+        <v>0.810647833401786</v>
       </c>
       <c r="J6" t="n">
-        <v>0.829739273394683</v>
+        <v>0.881149239446408</v>
       </c>
       <c r="K6" t="n">
-        <v>0.806344792169044</v>
+        <v>0.810777933032983</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_few_positive.xlsx
+++ b/xlsx/country_comparison/split_few_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,41 +32,41 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic: Education and Healthcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic: Social welfare programs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic: Reduction in the federal income tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic: Reduction of the deficit</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Education, Healthcare and
 Renewable energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic: Reduction of the deficit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic: Reduction in the income tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic: Social welfare programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic: Education and Healthcare</t>
   </si>
 </sst>
 </file>
@@ -426,180 +432,216 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.95822767599798</v>
+        <v>0.866804538943277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.972415009417179</v>
+        <v>0.882112958473168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.969544885106915</v>
+        <v>0.8443196149625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.94393954252824</v>
+        <v>0.879363579060731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.971311395922343</v>
+        <v>0.89964927572935</v>
       </c>
       <c r="G2" t="n">
-        <v>0.977318990998079</v>
+        <v>0.923507190754374</v>
       </c>
       <c r="H2" t="n">
-        <v>0.977831668641775</v>
+        <v>0.908614102048553</v>
       </c>
       <c r="I2" t="n">
-        <v>0.91864598874616</v>
+        <v>0.875254172325494</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9793168770663</v>
+        <v>0.840336440146222</v>
       </c>
       <c r="K2" t="n">
-        <v>0.882031100903789</v>
+        <v>0.830924252302932</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.975147486336504</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.854743399002287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.873591632412966</v>
+        <v>0.894517775820133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.86082362507101</v>
+        <v>0.90206424935644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.908587107772289</v>
+        <v>0.926012962789411</v>
       </c>
       <c r="E3" t="n">
-        <v>0.900590885152211</v>
+        <v>0.892958770661022</v>
       </c>
       <c r="F3" t="n">
-        <v>0.934755181227834</v>
+        <v>0.920982012910213</v>
       </c>
       <c r="G3" t="n">
-        <v>0.966872405856326</v>
+        <v>0.911155816432147</v>
       </c>
       <c r="H3" t="n">
-        <v>0.918055120335386</v>
+        <v>0.877007535276825</v>
       </c>
       <c r="I3" t="n">
-        <v>0.866322916691615</v>
+        <v>0.894523406776714</v>
       </c>
       <c r="J3" t="n">
-        <v>0.944118141911995</v>
+        <v>0.854053381546237</v>
       </c>
       <c r="K3" t="n">
-        <v>0.851464112457821</v>
+        <v>0.82633445266905</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.955956120503567</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.907984018846258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.797410917528468</v>
+        <v>0.881769585724107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.847089225289236</v>
+        <v>0.869065220237594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.936149139167187</v>
+        <v>0.83638326527641</v>
       </c>
       <c r="E4" t="n">
-        <v>0.89840054271122</v>
+        <v>0.86020083460724</v>
       </c>
       <c r="F4" t="n">
-        <v>0.940971237618567</v>
+        <v>0.920843851344907</v>
       </c>
       <c r="G4" t="n">
-        <v>0.955791830964021</v>
+        <v>0.926334392597952</v>
       </c>
       <c r="H4" t="n">
-        <v>0.868561855463216</v>
+        <v>0.836114411699277</v>
       </c>
       <c r="I4" t="n">
-        <v>0.901139968499578</v>
+        <v>0.857884525092134</v>
       </c>
       <c r="J4" t="n">
-        <v>0.841124457480678</v>
+        <v>0.890561712832196</v>
       </c>
       <c r="K4" t="n">
-        <v>0.866160229337452</v>
+        <v>0.894910491537387</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.956653043035593</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.884658251543113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.913369846217904</v>
+        <v>0.900487828868672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.880464532117965</v>
+        <v>0.911424097291804</v>
       </c>
       <c r="D5" t="n">
-        <v>0.929528695413859</v>
+        <v>0.87824597251054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.825270067654784</v>
+        <v>0.887327955433017</v>
       </c>
       <c r="F5" t="n">
-        <v>0.908030266549875</v>
+        <v>0.918376560824068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.956161519965351</v>
+        <v>0.947967968225787</v>
       </c>
       <c r="H5" t="n">
-        <v>0.88593160302545</v>
+        <v>0.913572003636878</v>
       </c>
       <c r="I5" t="n">
-        <v>0.882281313486622</v>
+        <v>0.958287667685572</v>
       </c>
       <c r="J5" t="n">
-        <v>0.894116823440551</v>
+        <v>0.900728673882232</v>
       </c>
       <c r="K5" t="n">
-        <v>0.849158806425503</v>
+        <v>0.893589337542256</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.958776109154532</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.886964159944158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.862426825539725</v>
+        <v>0.947185339235441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.890335029376851</v>
+        <v>0.965647199022093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.895155515239418</v>
+        <v>0.954198753879372</v>
       </c>
       <c r="E6" t="n">
-        <v>0.829083102528869</v>
+        <v>0.967006751996579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.939432814960256</v>
+        <v>0.966805366328994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.97518620445616</v>
+        <v>0.970700435207399</v>
       </c>
       <c r="H6" t="n">
-        <v>0.89660725746953</v>
+        <v>0.976290043093908</v>
       </c>
       <c r="I6" t="n">
-        <v>0.810647833401786</v>
+        <v>0.970000206623878</v>
       </c>
       <c r="J6" t="n">
-        <v>0.881149239446408</v>
+        <v>0.947351241207653</v>
       </c>
       <c r="K6" t="n">
-        <v>0.810777933032983</v>
+        <v>0.947938124959519</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.975574201778779</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.924400987184464</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_few_positive.xlsx
+++ b/xlsx/country_comparison/split_few_positive.xlsx
@@ -444,7 +444,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.866804538943277</v>
+        <v>0.866806376108921</v>
       </c>
       <c r="C2" t="n">
         <v>0.882112958473168</v>
@@ -471,13 +471,13 @@
         <v>0.840336440146222</v>
       </c>
       <c r="K2" t="n">
-        <v>0.830924252302932</v>
+        <v>0.831006202730531</v>
       </c>
       <c r="L2" t="n">
         <v>0.975147486336504</v>
       </c>
       <c r="M2" t="n">
-        <v>0.854743399002287</v>
+        <v>0.854745084577344</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.894517775820133</v>
+        <v>0.894537640667359</v>
       </c>
       <c r="C3" t="n">
         <v>0.90206424935644</v>
@@ -512,13 +512,13 @@
         <v>0.854053381546237</v>
       </c>
       <c r="K3" t="n">
-        <v>0.82633445266905</v>
+        <v>0.826395543070992</v>
       </c>
       <c r="L3" t="n">
         <v>0.955956120503567</v>
       </c>
       <c r="M3" t="n">
-        <v>0.907984018846258</v>
+        <v>0.908069730887381</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.881769585724107</v>
+        <v>0.881798089325233</v>
       </c>
       <c r="C4" t="n">
         <v>0.869065220237594</v>
@@ -553,13 +553,13 @@
         <v>0.890561712832196</v>
       </c>
       <c r="K4" t="n">
-        <v>0.894910491537387</v>
+        <v>0.894829078920152</v>
       </c>
       <c r="L4" t="n">
         <v>0.956653043035593</v>
       </c>
       <c r="M4" t="n">
-        <v>0.884658251543113</v>
+        <v>0.884682417583553</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.900487828868672</v>
+        <v>0.900466485499096</v>
       </c>
       <c r="C5" t="n">
         <v>0.911424097291804</v>
@@ -594,13 +594,13 @@
         <v>0.900728673882232</v>
       </c>
       <c r="K5" t="n">
-        <v>0.893589337542256</v>
+        <v>0.893623766992778</v>
       </c>
       <c r="L5" t="n">
         <v>0.958776109154532</v>
       </c>
       <c r="M5" t="n">
-        <v>0.886964159944158</v>
+        <v>0.886917032176871</v>
       </c>
     </row>
     <row r="6">
@@ -608,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.947185339235441</v>
+        <v>0.947144845251885</v>
       </c>
       <c r="C6" t="n">
         <v>0.965647199022093</v>
@@ -635,13 +635,13 @@
         <v>0.947351241207653</v>
       </c>
       <c r="K6" t="n">
-        <v>0.947938124959519</v>
+        <v>0.948002146729488</v>
       </c>
       <c r="L6" t="n">
         <v>0.975574201778779</v>
       </c>
       <c r="M6" t="n">
-        <v>0.924400987184464</v>
+        <v>0.924347089015566</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_few_positive.xlsx
+++ b/xlsx/country_comparison/split_few_positive.xlsx
@@ -608,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.947144845251885</v>
+        <v>0.947144845251886</v>
       </c>
       <c r="C6" t="n">
         <v>0.965647199022093</v>
